--- a/biology/Médecine/Unité_de_soins_intensifs/Unité_de_soins_intensifs.xlsx
+++ b/biology/Médecine/Unité_de_soins_intensifs/Unité_de_soins_intensifs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_soins_intensifs</t>
+          <t>Unité_de_soins_intensifs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une unité de soins intensifs ou USI (en anglais, intensive care unit ou ICU) est un service de l’hôpital qui prodigue des soins de suppléance à une défaillance aiguë. Elle est la structure médiane entre les services de réanimation (réa) et les unités de surveillance continue (USC), et prend en charge une défaillance unique sur une durée limitée. Elles constituent avec les USC les unités intermédiaires entre la réanimation et les services de soins généraux hospitaliers.
 Le service des soins intensifs a pour mission de prendre en charge les patients en état critique, c'est-à-dire qui présentent une défaillance d’une fonction vitale, ou qui sont à risque de développer une complication sévère.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_soins_intensifs</t>
+          <t>Unité_de_soins_intensifs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>USI spécialisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Unités de soins intensifs de cardiologie (USIC)
 Unités de soins intensifs de néphrologie
